--- a/WMS_Scheduler_Sem_I.xlsx
+++ b/WMS_Scheduler_Sem_I.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Holidays</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Schedule</t>
   </si>
   <si>
     <t>By: Joshua Wang</t>
@@ -810,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -818,9 +812,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -864,133 +855,163 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,541 +1307,593 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T103"/>
+  <dimension ref="B1:T106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18" style="11" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3" style="11" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="11" customWidth="1"/>
-    <col min="10" max="16" width="2.7109375" style="11" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="11"/>
-    <col min="18" max="18" width="4.140625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="31.42578125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" style="11" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="3" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18" style="10" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="10" customWidth="1"/>
+    <col min="5" max="6" width="6" style="10" customWidth="1"/>
+    <col min="7" max="13" width="2.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="12" style="10" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="53"/>
+      <c r="O3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="P3" s="71"/>
+      <c r="Q3" s="53"/>
+      <c r="S3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="49"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="29" t="str">
+        <f>INDEX(G4:M4, 1, P4)</f>
+        <v>G</v>
+      </c>
+      <c r="P4" s="38">
+        <f>MOD(D9, 7)+1</f>
+        <v>7</v>
+      </c>
+      <c r="Q4" s="40">
+        <f>D7</f>
+        <v>41562</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="60"/>
-      <c r="I3" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
-      <c r="S3" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="60"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>31</v>
+      <c r="T4" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>41459</v>
       </c>
       <c r="D5" s="2">
         <v>41501</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>8</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="23"/>
+      <c r="S5" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B6" s="7">
+        <v>41519</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
         <v>7</v>
       </c>
-      <c r="I5" s="25">
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="O6" s="32">
         <v>1</v>
       </c>
-      <c r="K5" s="4">
+      <c r="P6" s="33">
+        <f>INDEX(G5:M8,O6, P4)</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="34" t="str">
+        <f>INDEX(E13:E20, P6, 1)</f>
+        <v>Bible</v>
+      </c>
+      <c r="R6" s="23"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B7" s="7">
+        <v>41561</v>
+      </c>
+      <c r="D7" s="2">
+        <v>41562</v>
+      </c>
+      <c r="F7" s="22">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
         <v>5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L7" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M7" s="4">
         <v>6</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O7" s="32">
+        <v>2</v>
+      </c>
+      <c r="P7" s="33">
+        <f>INDEX(G5:M8,O7, P4)</f>
+        <v>5</v>
+      </c>
+      <c r="Q7" s="34" t="str">
+        <f>INDEX(E13:E20, P7, 1)</f>
+        <v>English</v>
+      </c>
+      <c r="R7" s="23"/>
+      <c r="S7" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B8" s="7">
+        <v>41563</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="27">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
         <v>3</v>
       </c>
-      <c r="O5" s="4">
+      <c r="M8" s="6">
+        <v>7</v>
+      </c>
+      <c r="O8" s="32">
+        <v>3</v>
+      </c>
+      <c r="P8" s="33">
+        <f>INDEX(G5:M8,O8, P4)</f>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="34" t="str">
+        <f>INDEX(E13:E20, P8, 1)</f>
+        <v>Orchestra</v>
+      </c>
+      <c r="S8" s="51"/>
+      <c r="T8" s="66"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B9" s="7">
+        <v>41565</v>
+      </c>
+      <c r="D9" s="28">
+        <f>NETWORKDAYS(D5, D7,B5:B106)-1</f>
+        <v>41</v>
+      </c>
+      <c r="O9" s="35">
+        <v>4</v>
+      </c>
+      <c r="P9" s="36">
+        <f>INDEX(G5:M8,O9, MOD(D9, 7) +1)</f>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="37" t="str">
+        <f>INDEX(E13:E20, P9, 1)</f>
+        <v>Physics</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B10" s="7">
+        <v>41575</v>
+      </c>
+      <c r="S10" s="51"/>
+      <c r="T10" s="66"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B11" s="7">
+        <v>41603</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="49"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="43"/>
+      <c r="S11" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B12" s="7">
+        <v>41604</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="68"/>
+    </row>
+    <row r="13" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B13" s="7">
+        <v>41605</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+    </row>
+    <row r="14" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B14" s="7">
+        <v>41606</v>
+      </c>
+      <c r="D14" s="22">
+        <v>2</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
+      <c r="S14" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="53"/>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" customHeight="1">
+      <c r="B15" s="7">
+        <v>41607</v>
+      </c>
+      <c r="D15" s="22">
+        <v>3</v>
+      </c>
+      <c r="E15" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="5">
+      <c r="F15" s="70"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="47"/>
+      <c r="S15" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="58"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="7"/>
+      <c r="D16" s="22">
         <v>4</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B6" s="8">
-        <v>41519</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="25">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="E16" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="60"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="7"/>
+      <c r="D17" s="22">
+        <v>5</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="70"/>
+      <c r="S17" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" s="62"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="7"/>
+      <c r="D18" s="22">
         <v>6</v>
       </c>
-      <c r="I6" s="25">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4">
-        <v>3</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="E18" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="62"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B19" s="7"/>
+      <c r="D19" s="22">
         <v>7</v>
       </c>
-      <c r="N6" s="4">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
-        <v>5</v>
-      </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B7" s="8">
-        <v>41561</v>
-      </c>
-      <c r="D7" s="2">
-        <v>41509</v>
-      </c>
-      <c r="F7" s="25">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E19" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="25">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="F19" s="70"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="64"/>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B20" s="7"/>
+      <c r="D20" s="27">
         <v>8</v>
       </c>
-      <c r="L7" s="4">
-        <v>4</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4">
-        <v>5</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2</v>
-      </c>
-      <c r="P7" s="5">
-        <v>6</v>
-      </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B8" s="8">
-        <v>41603</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="25">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="30">
-        <v>4</v>
-      </c>
-      <c r="J8" s="6">
-        <v>4</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>5</v>
-      </c>
-      <c r="M8" s="6">
-        <v>2</v>
-      </c>
-      <c r="N8" s="6">
-        <v>6</v>
-      </c>
-      <c r="O8" s="6">
-        <v>3</v>
-      </c>
-      <c r="P8" s="7">
-        <v>7</v>
-      </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="56"/>
-    </row>
-    <row r="9" spans="2:20" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B9" s="8">
-        <v>41604</v>
-      </c>
-      <c r="D9" s="31">
-        <f>NETWORKDAYS(D5, D7,B5:B103)-1</f>
-        <v>6</v>
-      </c>
-      <c r="F9" s="25">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B10" s="8">
-        <v>41605</v>
-      </c>
-      <c r="F10" s="25">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" s="54"/>
-      <c r="T10" s="56"/>
-    </row>
-    <row r="11" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B11" s="8">
-        <v>41606</v>
-      </c>
-      <c r="F11" s="25">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B12" s="8">
-        <v>41607</v>
-      </c>
-      <c r="F12" s="30">
-        <v>8</v>
-      </c>
-      <c r="G12" s="32" t="s">
+      <c r="E20" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
-    </row>
-    <row r="13" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B14" s="8"/>
-      <c r="E14" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="60"/>
-      <c r="S14" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="8"/>
-      <c r="E15" s="34" t="str">
-        <f>INDEX(J4:P4, 1, MOD(D9, 7)+1)</f>
-        <v>G</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="T15" s="46"/>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="8"/>
-      <c r="E16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="47"/>
-      <c r="T16" s="48"/>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="8"/>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="40">
-        <f>INDEX(J5:P8,E17, MOD(D9, 7) +1)</f>
-        <v>4</v>
-      </c>
-      <c r="G17" s="41" t="str">
-        <f>INDEX(G5:G12, F17, 1)</f>
-        <v>Bible</v>
-      </c>
-      <c r="S17" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" s="50"/>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="8"/>
-      <c r="E18" s="39">
-        <v>2</v>
-      </c>
-      <c r="F18" s="40">
-        <f>INDEX(J5:P8,E18, MOD(D9, 7) +1)</f>
-        <v>5</v>
-      </c>
-      <c r="G18" s="41" t="str">
-        <f>INDEX(G5:G12, F18, 1)</f>
-        <v>English</v>
-      </c>
-      <c r="S18" s="49"/>
-      <c r="T18" s="50"/>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B19" s="8"/>
-      <c r="E19" s="39">
-        <v>3</v>
-      </c>
-      <c r="F19" s="40">
-        <f>INDEX(J5:P8,E19, MOD(D9, 7) +1)</f>
-        <v>6</v>
-      </c>
-      <c r="G19" s="41" t="str">
-        <f>INDEX(G5:G12, F19, 1)</f>
-        <v>Orchestra</v>
-      </c>
-      <c r="P19" s="33"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
-    </row>
-    <row r="20" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B20" s="8"/>
-      <c r="E20" s="42">
-        <v>4</v>
-      </c>
-      <c r="F20" s="43">
-        <f>INDEX(J5:P8,E20, MOD(D9, 7) +1)</f>
-        <v>7</v>
-      </c>
-      <c r="G20" s="44" t="str">
-        <f>INDEX(G5:G12, F20, 1)</f>
-        <v>Physics</v>
-      </c>
+      <c r="F20" s="55"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="47"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="47"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="47"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="47"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="8"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="8"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="8"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="8"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="8"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="8"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="1"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="1"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="1"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1"/>
@@ -1987,18 +2060,33 @@
     <row r="102" spans="2:2">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B103" s="9"/>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B106" s="8"/>
     </row>
   </sheetData>
   <sheetProtection password="C836" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="14">
+  <mergeCells count="23">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="S5:S6"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:P3"/>
     <mergeCell ref="S14:T14"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="S15:T16"/>
     <mergeCell ref="S17:T19"/>
     <mergeCell ref="S7:S8"/>
@@ -2007,6 +2095,9 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="T11:T12"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
